--- a/data/trans_orig/P6511-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6511-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FF5A1C8-9DC8-4B75-BABF-053FD4094BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F58BED37-81C0-43D6-8C29-B4592D6801BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E95CD699-4449-4019-9135-7BF543D96F92}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AA85B6FC-5A83-4FF3-A7EB-F2C0646D5B0D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="333">
   <si>
     <t>Población según el uso de equipo de protección individual durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,08%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>67,03%</t>
   </si>
   <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
   </si>
   <si>
     <t>89,61%</t>
   </si>
   <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
   </si>
   <si>
     <t>76,14%</t>
   </si>
   <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>15,43%</t>
   </si>
   <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
   </si>
   <si>
     <t>5,05%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
   </si>
   <si>
     <t>11,24%</t>
   </si>
   <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,889 +134,904 @@
     <t>9,28%</t>
   </si>
   <si>
-    <t>5,33%</t>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
   </si>
   <si>
     <t>14,81%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
   </si>
   <si>
     <t>9,54%</t>
   </si>
   <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
   </si>
   <si>
     <t>5,89%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
+    <t>4,47%</t>
   </si>
   <si>
     <t>12,09%</t>
   </si>
   <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1431,7 +1446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A3D60F-57DE-44C8-BE6F-B992AC5C1175}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3158721-B647-4CE2-924B-A5E246F1EDF9}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1935,7 +1950,7 @@
         <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>34</v>
@@ -1944,13 +1959,13 @@
         <v>36897</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1965,13 +1980,13 @@
         <v>67374</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -1980,13 +1995,13 @@
         <v>5586</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>66</v>
@@ -1995,13 +2010,13 @@
         <v>72960</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2057,7 +2072,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2069,13 +2084,13 @@
         <v>118326</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>74</v>
@@ -2084,13 +2099,13 @@
         <v>74669</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>186</v>
@@ -2099,13 +2114,13 @@
         <v>192996</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2120,13 +2135,13 @@
         <v>24966</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>6</v>
@@ -2135,13 +2150,13 @@
         <v>5801</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>30</v>
@@ -2150,13 +2165,13 @@
         <v>30767</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2174,10 +2189,10 @@
         <v>67</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -2186,13 +2201,13 @@
         <v>8047</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -2201,13 +2216,13 @@
         <v>27484</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2222,13 +2237,13 @@
         <v>12035</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -2237,13 +2252,13 @@
         <v>6049</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -2252,13 +2267,13 @@
         <v>18084</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2314,7 +2329,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2326,13 +2341,13 @@
         <v>158971</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>123</v>
@@ -2341,13 +2356,13 @@
         <v>122094</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>278</v>
@@ -2356,13 +2371,13 @@
         <v>281065</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,10 +2392,10 @@
         <v>28060</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>135</v>
@@ -2407,13 +2422,13 @@
         <v>37063</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,7 +2443,7 @@
         <v>17690</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>142</v>
@@ -2449,7 +2464,7 @@
         <v>45</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>20</v>
@@ -2458,13 +2473,13 @@
         <v>19553</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,13 +2494,13 @@
         <v>18822</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2494,13 +2509,13 @@
         <v>3125</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -2509,13 +2524,13 @@
         <v>21947</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,7 +2586,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2583,13 +2598,13 @@
         <v>64182</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>40</v>
@@ -2598,13 +2613,13 @@
         <v>42793</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>102</v>
@@ -2613,13 +2628,13 @@
         <v>106975</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,13 +2649,13 @@
         <v>21621</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2649,13 +2664,13 @@
         <v>3619</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
@@ -2664,13 +2679,13 @@
         <v>25240</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2685,13 +2700,13 @@
         <v>9422</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2700,13 +2715,13 @@
         <v>1000</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M26" s="7">
         <v>11</v>
@@ -2715,13 +2730,13 @@
         <v>10423</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,13 +2751,13 @@
         <v>16951</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H27" s="7">
         <v>3</v>
@@ -2751,13 +2766,13 @@
         <v>3014</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>20</v>
@@ -2766,13 +2781,13 @@
         <v>19965</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,7 +2843,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2840,13 +2855,13 @@
         <v>100074</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>56</v>
@@ -2855,13 +2870,13 @@
         <v>57694</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>154</v>
@@ -2870,13 +2885,13 @@
         <v>157768</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,13 +2906,13 @@
         <v>27469</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -2906,13 +2921,13 @@
         <v>11628</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>37</v>
@@ -2921,13 +2936,13 @@
         <v>39097</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,13 +2957,13 @@
         <v>11029</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H31" s="7">
         <v>8</v>
@@ -2957,13 +2972,13 @@
         <v>8511</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M31" s="7">
         <v>19</v>
@@ -2972,13 +2987,13 @@
         <v>19540</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +3008,13 @@
         <v>17445</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -3008,13 +3023,13 @@
         <v>4984</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M32" s="7">
         <v>20</v>
@@ -3023,13 +3038,13 @@
         <v>22429</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,7 +3100,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3097,13 +3112,13 @@
         <v>208272</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H34" s="7">
         <v>130</v>
@@ -3112,13 +3127,13 @@
         <v>139973</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M34" s="7">
         <v>328</v>
@@ -3127,13 +3142,13 @@
         <v>348246</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3163,13 @@
         <v>52289</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H35" s="7">
         <v>18</v>
@@ -3163,13 +3178,13 @@
         <v>20666</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M35" s="7">
         <v>67</v>
@@ -3178,13 +3193,13 @@
         <v>72955</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,13 +3214,13 @@
         <v>29155</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H36" s="7">
         <v>9</v>
@@ -3217,10 +3232,10 @@
         <v>24</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M36" s="7">
         <v>37</v>
@@ -3229,13 +3244,13 @@
         <v>38272</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3250,13 +3265,13 @@
         <v>46198</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H37" s="7">
         <v>11</v>
@@ -3265,13 +3280,13 @@
         <v>10791</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M37" s="7">
         <v>53</v>
@@ -3280,13 +3295,13 @@
         <v>56989</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3342,7 +3357,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3354,13 +3369,13 @@
         <v>224361</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H39" s="7">
         <v>177</v>
@@ -3369,13 +3384,13 @@
         <v>185705</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="M39" s="7">
         <v>390</v>
@@ -3384,13 +3399,13 @@
         <v>410066</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3405,13 +3420,13 @@
         <v>74270</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>271</v>
+        <v>169</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>167</v>
+        <v>275</v>
       </c>
       <c r="H40" s="7">
         <v>17</v>
@@ -3420,13 +3435,13 @@
         <v>17132</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>112</v>
+        <v>276</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="M40" s="7">
         <v>88</v>
@@ -3435,13 +3450,13 @@
         <v>91401</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,13 +3471,13 @@
         <v>67049</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>279</v>
+        <v>204</v>
       </c>
       <c r="H41" s="7">
         <v>10</v>
@@ -3471,13 +3486,13 @@
         <v>10405</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="M41" s="7">
         <v>75</v>
@@ -3486,13 +3501,13 @@
         <v>77454</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>246</v>
+        <v>288</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3522,13 @@
         <v>101486</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="H42" s="7">
         <v>23</v>
@@ -3522,13 +3537,13 @@
         <v>24800</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="M42" s="7">
         <v>128</v>
@@ -3537,13 +3552,13 @@
         <v>126286</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>135</v>
+        <v>296</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,16 +3623,16 @@
         <v>1073</v>
       </c>
       <c r="D44" s="7">
-        <v>1123289</v>
+        <v>1123290</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="H44" s="7">
         <v>796</v>
@@ -3626,13 +3641,13 @@
         <v>831880</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="M44" s="7">
         <v>1869</v>
@@ -3641,13 +3656,13 @@
         <v>1955169</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,13 +3677,13 @@
         <v>287154</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="H45" s="7">
         <v>80</v>
@@ -3677,13 +3692,13 @@
         <v>85162</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="M45" s="7">
         <v>354</v>
@@ -3692,13 +3707,13 @@
         <v>372316</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,13 +3728,13 @@
         <v>201047</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>31</v>
+        <v>318</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H46" s="7">
         <v>46</v>
@@ -3728,13 +3743,13 @@
         <v>47820</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>314</v>
+        <v>34</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="M46" s="7">
         <v>240</v>
@@ -3743,13 +3758,13 @@
         <v>248867</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,10 +3782,10 @@
         <v>21</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="H47" s="7">
         <v>59</v>
@@ -3779,13 +3794,13 @@
         <v>60438</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>323</v>
+        <v>139</v>
       </c>
       <c r="M47" s="7">
         <v>342</v>
@@ -3794,13 +3809,13 @@
         <v>354408</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,7 +3827,7 @@
         <v>1824</v>
       </c>
       <c r="D48" s="7">
-        <v>1905460</v>
+        <v>1905461</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>50</v>
@@ -3856,7 +3871,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6511-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6511-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F58BED37-81C0-43D6-8C29-B4592D6801BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9D0B627-E053-44E0-A877-6C8AB6F3458A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AA85B6FC-5A83-4FF3-A7EB-F2C0646D5B0D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FB851CA3-5451-4B0E-85FF-883533B44AE3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="329">
   <si>
     <t>Población según el uso de equipo de protección individual durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,08%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>67,03%</t>
   </si>
   <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
   </si>
   <si>
     <t>89,61%</t>
   </si>
   <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
   </si>
   <si>
     <t>76,14%</t>
   </si>
   <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,934 +104,922 @@
     <t>15,43%</t>
   </si>
   <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
     <t>10,31%</t>
   </si>
   <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
     <t>22,71%</t>
   </si>
   <si>
-    <t>5,05%</t>
+    <t>5,98%</t>
   </si>
   <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
   </si>
   <si>
     <t>13,91%</t>
   </si>
   <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
     <t>10,55%</t>
   </si>
   <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
+    <t>9,12%</t>
   </si>
   <si>
     <t>4,66%</t>
   </si>
   <si>
-    <t>6,14%</t>
+    <t>3,44%</t>
   </si>
   <si>
     <t>8,49%</t>
   </si>
   <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
     <t>7,45%</t>
   </si>
   <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
     <t>12,09%</t>
   </si>
   <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1446,7 +1434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3158721-B647-4CE2-924B-A5E246F1EDF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471118EB-536F-408D-B76C-A1182724339D}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2207,7 +2195,7 @@
         <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -2216,13 +2204,13 @@
         <v>27484</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,13 +2225,13 @@
         <v>12035</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -2252,13 +2240,13 @@
         <v>6049</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -2267,13 +2255,13 @@
         <v>18084</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,7 +2317,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2341,13 +2329,13 @@
         <v>158971</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>123</v>
@@ -2356,13 +2344,13 @@
         <v>122094</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>278</v>
@@ -2371,13 +2359,13 @@
         <v>281065</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2392,10 +2380,10 @@
         <v>28060</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>135</v>
@@ -2422,13 +2410,13 @@
         <v>37063</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,13 +2431,13 @@
         <v>17690</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -2458,13 +2446,13 @@
         <v>1864</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>20</v>
@@ -2473,13 +2461,13 @@
         <v>19553</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,10 +2670,10 @@
         <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,13 +2688,13 @@
         <v>9422</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>178</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>86</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2715,13 +2703,13 @@
         <v>1000</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M26" s="7">
         <v>11</v>
@@ -2730,13 +2718,13 @@
         <v>10423</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,13 +2739,13 @@
         <v>16951</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H27" s="7">
         <v>3</v>
@@ -2766,13 +2754,13 @@
         <v>3014</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M27" s="7">
         <v>20</v>
@@ -2781,13 +2769,13 @@
         <v>19965</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,7 +2831,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2855,13 +2843,13 @@
         <v>100074</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H29" s="7">
         <v>56</v>
@@ -2870,13 +2858,13 @@
         <v>57694</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M29" s="7">
         <v>154</v>
@@ -2885,13 +2873,13 @@
         <v>157768</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,13 +2894,13 @@
         <v>27469</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -2921,13 +2909,13 @@
         <v>11628</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M30" s="7">
         <v>37</v>
@@ -2936,13 +2924,13 @@
         <v>39097</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,13 +2945,13 @@
         <v>11029</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H31" s="7">
         <v>8</v>
@@ -2972,13 +2960,13 @@
         <v>8511</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M31" s="7">
         <v>19</v>
@@ -2987,13 +2975,13 @@
         <v>19540</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>150</v>
+        <v>216</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,13 +2996,13 @@
         <v>17445</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -3023,13 +3011,13 @@
         <v>4984</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M32" s="7">
         <v>20</v>
@@ -3038,13 +3026,13 @@
         <v>22429</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,7 +3088,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3112,13 +3100,13 @@
         <v>208272</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H34" s="7">
         <v>130</v>
@@ -3127,13 +3115,13 @@
         <v>139973</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M34" s="7">
         <v>328</v>
@@ -3142,13 +3130,13 @@
         <v>348246</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,13 +3151,13 @@
         <v>52289</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H35" s="7">
         <v>18</v>
@@ -3178,13 +3166,13 @@
         <v>20666</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M35" s="7">
         <v>67</v>
@@ -3193,13 +3181,13 @@
         <v>72955</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,13 +3202,13 @@
         <v>29155</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H36" s="7">
         <v>9</v>
@@ -3232,10 +3220,10 @@
         <v>24</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M36" s="7">
         <v>37</v>
@@ -3244,13 +3232,13 @@
         <v>38272</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,13 +3253,13 @@
         <v>46198</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>85</v>
+        <v>256</v>
       </c>
       <c r="H37" s="7">
         <v>11</v>
@@ -3280,13 +3268,13 @@
         <v>10791</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M37" s="7">
         <v>53</v>
@@ -3295,13 +3283,13 @@
         <v>56989</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3357,7 +3345,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3369,13 +3357,13 @@
         <v>224361</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H39" s="7">
         <v>177</v>
@@ -3384,13 +3372,13 @@
         <v>185705</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M39" s="7">
         <v>390</v>
@@ -3399,13 +3387,13 @@
         <v>410066</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,13 +3408,13 @@
         <v>74270</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H40" s="7">
         <v>17</v>
@@ -3435,13 +3423,13 @@
         <v>17132</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M40" s="7">
         <v>88</v>
@@ -3450,13 +3438,13 @@
         <v>91401</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,13 +3459,13 @@
         <v>67049</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H41" s="7">
         <v>10</v>
@@ -3504,10 +3492,10 @@
         <v>287</v>
       </c>
       <c r="P41" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,13 +3510,13 @@
         <v>101486</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H42" s="7">
         <v>23</v>
@@ -3537,13 +3525,13 @@
         <v>24800</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M42" s="7">
         <v>128</v>
@@ -3552,13 +3540,13 @@
         <v>126286</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,16 +3611,16 @@
         <v>1073</v>
       </c>
       <c r="D44" s="7">
-        <v>1123290</v>
+        <v>1123289</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H44" s="7">
         <v>796</v>
@@ -3641,13 +3629,13 @@
         <v>831880</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M44" s="7">
         <v>1869</v>
@@ -3656,13 +3644,13 @@
         <v>1955169</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +3665,13 @@
         <v>287154</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H45" s="7">
         <v>80</v>
@@ -3692,13 +3680,13 @@
         <v>85162</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>312</v>
+        <v>112</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M45" s="7">
         <v>354</v>
@@ -3707,13 +3695,13 @@
         <v>372316</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>315</v>
+        <v>240</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,13 +3716,13 @@
         <v>201047</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>319</v>
+        <v>61</v>
       </c>
       <c r="H46" s="7">
         <v>46</v>
@@ -3743,13 +3731,13 @@
         <v>47820</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>34</v>
+        <v>316</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>321</v>
+        <v>101</v>
       </c>
       <c r="M46" s="7">
         <v>240</v>
@@ -3758,13 +3746,13 @@
         <v>248867</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,10 +3770,10 @@
         <v>21</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H47" s="7">
         <v>59</v>
@@ -3794,13 +3782,13 @@
         <v>60438</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>139</v>
+        <v>324</v>
       </c>
       <c r="M47" s="7">
         <v>342</v>
@@ -3809,13 +3797,13 @@
         <v>354408</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,7 +3815,7 @@
         <v>1824</v>
       </c>
       <c r="D48" s="7">
-        <v>1905461</v>
+        <v>1905460</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>50</v>
@@ -3871,7 +3859,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6511-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6511-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9D0B627-E053-44E0-A877-6C8AB6F3458A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1DD5ED5-3085-4802-8EBA-24FCBA218240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FB851CA3-5451-4B0E-85FF-883533B44AE3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{376E1905-1053-44F9-9E5F-0D6C6D3566A9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="328">
   <si>
     <t>Población según el uso de equipo de protección individual durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,08%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>67,03%</t>
   </si>
   <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
   </si>
   <si>
     <t>89,61%</t>
   </si>
   <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
   </si>
   <si>
     <t>76,14%</t>
   </si>
   <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,922 +104,919 @@
     <t>15,43%</t>
   </si>
   <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
   </si>
   <si>
     <t>5,05%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
   </si>
   <si>
     <t>11,24%</t>
   </si>
   <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
     <t>7,9%</t>
   </si>
   <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
   </si>
   <si>
     <t>6,07%</t>
   </si>
   <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
     <t>8,49%</t>
   </si>
   <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
   </si>
   <si>
     <t>5,89%</t>
   </si>
   <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
   </si>
   <si>
     <t>12,09%</t>
   </si>
   <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1434,7 +1431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471118EB-536F-408D-B76C-A1182724339D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D5AC30-D3AD-4525-A9A1-FCF54ABC419D}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1938,7 +1935,7 @@
         <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>34</v>
@@ -1947,13 +1944,13 @@
         <v>36897</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1968,13 +1965,13 @@
         <v>67374</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -1983,13 +1980,13 @@
         <v>5586</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>66</v>
@@ -1998,13 +1995,13 @@
         <v>72960</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2060,7 +2057,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2072,13 +2069,13 @@
         <v>118326</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>74</v>
@@ -2087,13 +2084,13 @@
         <v>74669</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>186</v>
@@ -2102,13 +2099,13 @@
         <v>192996</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2123,13 +2120,13 @@
         <v>24966</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>6</v>
@@ -2138,13 +2135,13 @@
         <v>5801</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>30</v>
@@ -2153,13 +2150,13 @@
         <v>30767</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2177,10 +2174,10 @@
         <v>67</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -2189,13 +2186,13 @@
         <v>8047</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -2431,13 +2428,13 @@
         <v>17690</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -2446,13 +2443,13 @@
         <v>1864</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c r="M21" s="7">
         <v>20</v>
@@ -2461,13 +2458,13 @@
         <v>19553</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,13 +2479,13 @@
         <v>18822</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2497,13 +2494,13 @@
         <v>3125</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -2512,13 +2509,13 @@
         <v>21947</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2574,7 +2571,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2586,13 +2583,13 @@
         <v>64182</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>40</v>
@@ -2601,13 +2598,13 @@
         <v>42793</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>102</v>
@@ -2616,13 +2613,13 @@
         <v>106975</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,13 +2634,13 @@
         <v>21621</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2652,13 +2649,13 @@
         <v>3619</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
@@ -2667,13 +2664,13 @@
         <v>25240</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,13 +2685,13 @@
         <v>9422</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2703,13 +2700,13 @@
         <v>1000</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M26" s="7">
         <v>11</v>
@@ -2718,13 +2715,13 @@
         <v>10423</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,10 +2736,10 @@
         <v>16951</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>184</v>
@@ -2897,10 +2894,10 @@
         <v>201</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -2909,13 +2906,13 @@
         <v>11628</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M30" s="7">
         <v>37</v>
@@ -2924,13 +2921,13 @@
         <v>39097</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,13 +2942,13 @@
         <v>11029</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H31" s="7">
         <v>8</v>
@@ -2960,13 +2957,13 @@
         <v>8511</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M31" s="7">
         <v>19</v>
@@ -2975,13 +2972,13 @@
         <v>19540</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,13 +2993,13 @@
         <v>17445</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -3011,13 +3008,13 @@
         <v>4984</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M32" s="7">
         <v>20</v>
@@ -3026,10 +3023,10 @@
         <v>22429</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>226</v>
@@ -3259,7 +3256,7 @@
         <v>255</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>256</v>
+        <v>84</v>
       </c>
       <c r="H37" s="7">
         <v>11</v>
@@ -3271,10 +3268,10 @@
         <v>185</v>
       </c>
       <c r="K37" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M37" s="7">
         <v>53</v>
@@ -3283,13 +3280,13 @@
         <v>56989</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3345,7 +3342,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3357,13 +3354,13 @@
         <v>224361</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H39" s="7">
         <v>177</v>
@@ -3372,13 +3369,13 @@
         <v>185705</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M39" s="7">
         <v>390</v>
@@ -3387,13 +3384,13 @@
         <v>410066</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,13 +3405,13 @@
         <v>74270</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>274</v>
+        <v>167</v>
       </c>
       <c r="H40" s="7">
         <v>17</v>
@@ -3423,13 +3420,13 @@
         <v>17132</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>275</v>
+        <v>112</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M40" s="7">
         <v>88</v>
@@ -3438,13 +3435,13 @@
         <v>91401</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,13 +3456,13 @@
         <v>67049</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H41" s="7">
         <v>10</v>
@@ -3474,13 +3471,13 @@
         <v>10405</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="M41" s="7">
         <v>75</v>
@@ -3489,13 +3486,13 @@
         <v>77454</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>84</v>
+        <v>246</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,13 +3507,13 @@
         <v>101486</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H42" s="7">
         <v>23</v>
@@ -3525,13 +3522,13 @@
         <v>24800</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="M42" s="7">
         <v>128</v>
@@ -3540,13 +3537,13 @@
         <v>126286</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>256</v>
+        <v>135</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,13 +3611,13 @@
         <v>1123289</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H44" s="7">
         <v>796</v>
@@ -3629,13 +3626,13 @@
         <v>831880</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M44" s="7">
         <v>1869</v>
@@ -3644,13 +3641,13 @@
         <v>1955169</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,13 +3662,13 @@
         <v>287154</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H45" s="7">
         <v>80</v>
@@ -3680,13 +3677,13 @@
         <v>85162</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>112</v>
+        <v>306</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M45" s="7">
         <v>354</v>
@@ -3695,13 +3692,13 @@
         <v>372316</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>240</v>
+        <v>309</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,13 +3713,13 @@
         <v>201047</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>314</v>
+        <v>31</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>61</v>
+        <v>312</v>
       </c>
       <c r="H46" s="7">
         <v>46</v>
@@ -3731,13 +3728,13 @@
         <v>47820</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M46" s="7">
         <v>240</v>
@@ -3746,13 +3743,13 @@
         <v>248867</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="P46" s="7" t="s">
+      <c r="Q46" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,10 +3767,10 @@
         <v>21</v>
       </c>
       <c r="F47" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="H47" s="7">
         <v>59</v>
@@ -3782,13 +3779,13 @@
         <v>60438</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="L47" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="M47" s="7">
         <v>342</v>
@@ -3797,13 +3794,13 @@
         <v>354408</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="Q47" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,7 +3856,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6511-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6511-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1DD5ED5-3085-4802-8EBA-24FCBA218240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96E6FA41-8E1A-4CAB-8747-3DA3789EC8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{376E1905-1053-44F9-9E5F-0D6C6D3566A9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{23A96699-1EBE-4401-ADCC-B19AB348A918}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1431,7 +1431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D5AC30-D3AD-4525-A9A1-FCF54ABC419D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3F8E0C-0591-4F20-967C-9B0A6398B406}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
